--- a/biology/Microbiologie/Groupage_sérologique_par_le_polyoside_C/Groupage_sérologique_par_le_polyoside_C.xlsx
+++ b/biology/Microbiologie/Groupage_sérologique_par_le_polyoside_C/Groupage_sérologique_par_le_polyoside_C.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Groupage_s%C3%A9rologique_par_le_polyoside_C</t>
+          <t>Groupage_sérologique_par_le_polyoside_C</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le groupage sérologique par le polyoside C permet l'identification et la classification des bactéries du genre Streptoccocus.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Groupage_s%C3%A9rologique_par_le_polyoside_C</t>
+          <t>Groupage_sérologique_par_le_polyoside_C</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Principe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le polyoside C est un glucide complexe qui correspond à un antigène de la paroi de la bactérie. La nature du Polyoside C va permettre de classer la bactérie dans l'un des nombreux groupes (A,B,C,D,K,L,M, ...).
 Pour déterminer à quel groupe appartient la bactérie, on fait réagir des anticorps connus avec le polyoside C à identifier. La formation de complexes anticorps-antigènes signe la reconnaissance par l'anticorps du type du polyoside C. Les anticorps sont portés par des billes de latex sensibilisées.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Groupage_s%C3%A9rologique_par_le_polyoside_C</t>
+          <t>Groupage_sérologique_par_le_polyoside_C</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,10 +559,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Extraction de la substance C
-Le germe étudié est cultivé dans un bouillon de Todd Hewitt. On met quelques gouttes de bouillon dans une solution contenant une enzyme d'extraction qui va exposer le polyoside C caché dans les couches de la paroi. Le tout est placé pendant 10 minutes dans un bain marie à 37 °C.
-Agglutination sur lame
-noter le type de l'anticorps utilisé sur la lame.
+          <t>Extraction de la substance C</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le germe étudié est cultivé dans un bouillon de Todd Hewitt. On met quelques gouttes de bouillon dans une solution contenant une enzyme d'extraction qui va exposer le polyoside C caché dans les couches de la paroi. Le tout est placé pendant 10 minutes dans un bain marie à 37 °C.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Groupage_sérologique_par_le_polyoside_C</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Groupage_s%C3%A9rologique_par_le_polyoside_C</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Technique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Agglutination sur lame</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">noter le type de l'anticorps utilisé sur la lame.
 déposer une goutte de latex anti A et une goutte de la solution d'extraction juxtaposées.
 mélanger les gouttes avec une pipette pasteur fermée.
 donner un mouvement de rotation à la lame, pour faciliter une éventuelle agglutination.
